--- a/SearchDetailsScenario/resources/test-data/SearchDetails.xlsx
+++ b/SearchDetailsScenario/resources/test-data/SearchDetails.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="2385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="2640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search1" sheetId="1" r:id="rId1"/>
     <sheet name="Color" sheetId="2" r:id="rId2"/>
     <sheet name="Size" sheetId="3" r:id="rId3"/>
     <sheet name="Quantity" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>color</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Add to Cart</t>
-  </si>
-  <si>
-    <t>color disabled</t>
   </si>
 </sst>
 </file>
@@ -143,8 +140,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,7 +468,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +593,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +658,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -729,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -809,4 +834,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="98.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
 </file>